--- a/trend_results/Rivers/ManawatuatNgawapuruaBridge_a702aaa1b3.xlsx
+++ b/trend_results/Rivers/ManawatuatNgawapuruaBridge_a702aaa1b3.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.182201485617153</v>
+        <v>0.817798514382847</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
